--- a/Product Data per State.xlsx
+++ b/Product Data per State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bff73b0ba30a6b9/Dokumen/College Files/OR/OR8/OR8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DFD41FE2-6EA3-4369-AD56-4619602AEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1401422D-65AE-4A4E-ADD1-E1C2F9EE870A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{DFD41FE2-6EA3-4369-AD56-4619602AEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA420EA-7C7B-4CD3-AD36-A18B5FFAC652}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF9D25FB-F42D-42BB-A768-4008AE9B880C}"/>
   </bookViews>
@@ -322,6 +322,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,12 +648,14 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="3"/>
     <col min="5" max="5" width="12.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
@@ -698,34 +704,34 @@
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
       <c r="G2" s="3">
-        <v>543</v>
+        <v>207</v>
       </c>
       <c r="H2" s="3">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>728</v>
+        <v>453</v>
       </c>
       <c r="J2" s="3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>9765</v>
+        <v>9365</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -733,34 +739,34 @@
         <v>12</v>
       </c>
       <c r="B3" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3">
-        <v>2365</v>
+        <v>2029</v>
       </c>
       <c r="H3" s="3">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3">
-        <v>3929</v>
+        <v>3654</v>
       </c>
       <c r="J3" s="3">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3">
-        <v>67976</v>
+        <v>67576</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -768,34 +774,34 @@
         <v>13</v>
       </c>
       <c r="B4" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3">
-        <v>1294</v>
+        <v>958</v>
       </c>
       <c r="H4" s="3">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>2419</v>
+        <v>2144</v>
       </c>
       <c r="J4" s="3">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3">
-        <v>40665</v>
+        <v>40265</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -803,34 +809,34 @@
         <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3">
-        <v>3413</v>
+        <v>3077</v>
       </c>
       <c r="H5" s="3">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>5868</v>
+        <v>5593</v>
       </c>
       <c r="J5" s="3">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="K5" s="3">
-        <v>98705</v>
+        <v>98305</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -838,34 +844,34 @@
         <v>15</v>
       </c>
       <c r="B6" s="3">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C6" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E6" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G6" s="3">
-        <v>16316</v>
+        <v>15980</v>
       </c>
       <c r="H6" s="3">
-        <v>1004</v>
+        <v>524</v>
       </c>
       <c r="I6" s="3">
-        <v>29994</v>
+        <v>29719</v>
       </c>
       <c r="J6" s="3">
-        <v>742</v>
+        <v>622</v>
       </c>
       <c r="K6" s="3">
-        <v>516565</v>
+        <v>516165</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -873,34 +879,34 @@
         <v>16</v>
       </c>
       <c r="B7" s="3">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2360</v>
+      </c>
+      <c r="H7" s="3">
+        <v>106</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4471</v>
+      </c>
+      <c r="J7" s="3">
         <v>53</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2696</v>
-      </c>
-      <c r="H7" s="3">
-        <v>586</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4746</v>
-      </c>
-      <c r="J7" s="3">
-        <v>173</v>
-      </c>
       <c r="K7" s="3">
-        <v>77876</v>
+        <v>77476</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -908,34 +914,34 @@
         <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3">
-        <v>1531</v>
+        <v>1195</v>
       </c>
       <c r="H8" s="3">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>2963</v>
+        <v>2688</v>
       </c>
       <c r="J8" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K8" s="3">
-        <v>48080</v>
+        <v>47680</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -943,34 +949,34 @@
         <v>18</v>
       </c>
       <c r="B9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>353</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>592</v>
+        <v>317</v>
       </c>
       <c r="J9" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>9351</v>
+        <v>8951</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -978,34 +984,34 @@
         <v>19</v>
       </c>
       <c r="B10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>576</v>
+        <v>240</v>
       </c>
       <c r="H10" s="3">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>921</v>
+        <v>646</v>
       </c>
       <c r="J10" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>13828</v>
+        <v>13428</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1013,34 +1019,34 @@
         <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E11" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="3">
-        <v>9663</v>
+        <v>9327</v>
       </c>
       <c r="H11" s="3">
-        <v>814</v>
+        <v>334</v>
       </c>
       <c r="I11" s="3">
-        <v>17567</v>
+        <v>17292</v>
       </c>
       <c r="J11" s="3">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="K11" s="3">
-        <v>299651</v>
+        <v>299251</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1048,34 +1054,34 @@
         <v>21</v>
       </c>
       <c r="B12" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="3">
-        <v>4876</v>
+        <v>4540</v>
       </c>
       <c r="H12" s="3">
-        <v>619</v>
+        <v>139</v>
       </c>
       <c r="I12" s="3">
-        <v>8508</v>
+        <v>8233</v>
       </c>
       <c r="J12" s="3">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="K12" s="3">
-        <v>146497</v>
+        <v>146097</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1083,34 +1089,34 @@
         <v>22</v>
       </c>
       <c r="B13" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3">
-        <v>639</v>
+        <v>303</v>
       </c>
       <c r="H13" s="3">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>1101</v>
+        <v>826</v>
       </c>
       <c r="J13" s="3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>19057</v>
+        <v>18657</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1118,34 +1124,34 @@
         <v>23</v>
       </c>
       <c r="B14" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3">
-        <v>1444</v>
+        <v>1108</v>
       </c>
       <c r="H14" s="3">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>2491</v>
+        <v>2216</v>
       </c>
       <c r="J14" s="3">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K14" s="3">
-        <v>42748</v>
+        <v>42348</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1153,34 +1159,34 @@
         <v>24</v>
       </c>
       <c r="B15" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3">
-        <v>1142</v>
+        <v>806</v>
       </c>
       <c r="H15" s="3">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>1596</v>
+        <v>1321</v>
       </c>
       <c r="J15" s="3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>26174</v>
+        <v>25774</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1188,34 +1194,34 @@
         <v>25</v>
       </c>
       <c r="B16" s="3">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3">
-        <v>5476</v>
+        <v>5140</v>
       </c>
       <c r="H16" s="3">
-        <v>771</v>
+        <v>291</v>
       </c>
       <c r="I16" s="3">
-        <v>9822</v>
+        <v>9547</v>
       </c>
       <c r="J16" s="3">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="K16" s="3">
-        <v>166429</v>
+        <v>166029</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1223,34 +1229,34 @@
         <v>26</v>
       </c>
       <c r="B17" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="3">
-        <v>3107</v>
+        <v>2771</v>
       </c>
       <c r="H17" s="3">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>5274</v>
+        <v>4999</v>
       </c>
       <c r="J17" s="3">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="K17" s="3">
-        <v>90996</v>
+        <v>90596</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1258,34 +1264,34 @@
         <v>27</v>
       </c>
       <c r="B18" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3">
-        <v>1522</v>
+        <v>1186</v>
       </c>
       <c r="H18" s="3">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>2377</v>
+        <v>2102</v>
       </c>
       <c r="J18" s="3">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="K18" s="3">
-        <v>39164</v>
+        <v>38764</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1293,34 +1299,34 @@
         <v>28</v>
       </c>
       <c r="B19" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="3">
-        <v>2014</v>
+        <v>1678</v>
       </c>
       <c r="H19" s="3">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>3578</v>
+        <v>3303</v>
       </c>
       <c r="J19" s="3">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>60070</v>
+        <v>59670</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1328,34 +1334,34 @@
         <v>29</v>
       </c>
       <c r="B20" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="3">
-        <v>2180</v>
+        <v>1844</v>
       </c>
       <c r="H20" s="3">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>3697</v>
+        <v>3422</v>
       </c>
       <c r="J20" s="3">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>60782</v>
+        <v>60382</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1363,34 +1369,34 @@
         <v>30</v>
       </c>
       <c r="B21" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3">
-        <v>2921</v>
+        <v>2585</v>
       </c>
       <c r="H21" s="3">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>5621</v>
+        <v>5346</v>
       </c>
       <c r="J21" s="3">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="K21" s="3">
-        <v>93077</v>
+        <v>92677</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1398,34 +1404,34 @@
         <v>31</v>
       </c>
       <c r="B22" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G22" s="3">
-        <v>2744</v>
+        <v>2408</v>
       </c>
       <c r="H22" s="3">
-        <v>616</v>
+        <v>136</v>
       </c>
       <c r="I22" s="3">
-        <v>4950</v>
+        <v>4675</v>
       </c>
       <c r="J22" s="3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="K22" s="3">
-        <v>82000</v>
+        <v>81600</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1433,34 +1439,34 @@
         <v>32</v>
       </c>
       <c r="B23" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="3">
-        <v>837</v>
+        <v>501</v>
       </c>
       <c r="H23" s="3">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>1278</v>
+        <v>1003</v>
       </c>
       <c r="J23" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>18867</v>
+        <v>18467</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1468,34 +1474,34 @@
         <v>33</v>
       </c>
       <c r="B24" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G24" s="3">
-        <v>4439</v>
+        <v>4103</v>
       </c>
       <c r="H24" s="3">
-        <v>520</v>
+        <v>40</v>
       </c>
       <c r="I24" s="3">
-        <v>7686</v>
+        <v>7411</v>
       </c>
       <c r="J24" s="3">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="K24" s="3">
-        <v>133266</v>
+        <v>132866</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1503,34 +1509,34 @@
         <v>34</v>
       </c>
       <c r="B25" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="3">
-        <v>2545</v>
+        <v>2209</v>
       </c>
       <c r="H25" s="3">
-        <v>572</v>
+        <v>92</v>
       </c>
       <c r="I25" s="3">
-        <v>4398</v>
+        <v>4123</v>
       </c>
       <c r="J25" s="3">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="K25" s="3">
-        <v>76187</v>
+        <v>75787</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1538,34 +1544,34 @@
         <v>35</v>
       </c>
       <c r="B26" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="3">
-        <v>2800</v>
+        <v>2464</v>
       </c>
       <c r="H26" s="3">
-        <v>618</v>
+        <v>138</v>
       </c>
       <c r="I26" s="3">
-        <v>4990</v>
+        <v>4715</v>
       </c>
       <c r="J26" s="3">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="K26" s="3">
-        <v>82238</v>
+        <v>81838</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1573,34 +1579,34 @@
         <v>36</v>
       </c>
       <c r="B27" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="3">
-        <v>1519</v>
+        <v>1183</v>
       </c>
       <c r="H27" s="3">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>2375</v>
+        <v>2100</v>
       </c>
       <c r="J27" s="3">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="K27" s="3">
-        <v>39151</v>
+        <v>38751</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1608,34 +1614,34 @@
         <v>37</v>
       </c>
       <c r="B28" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="3">
-        <v>592</v>
+        <v>256</v>
       </c>
       <c r="H28" s="3">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>898</v>
+        <v>623</v>
       </c>
       <c r="J28" s="3">
-        <v>8512</v>
+        <v>8392</v>
       </c>
       <c r="K28" s="3">
-        <v>15337</v>
+        <v>14937</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1643,34 +1649,34 @@
         <v>38</v>
       </c>
       <c r="B29" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G29" s="3">
-        <v>4536</v>
+        <v>4200</v>
       </c>
       <c r="H29" s="3">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="I29" s="3">
-        <v>8300</v>
+        <v>8025</v>
       </c>
       <c r="J29" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K29" s="3">
-        <v>143601</v>
+        <v>143201</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1678,34 +1684,34 @@
         <v>39</v>
       </c>
       <c r="B30" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3</v>
-      </c>
       <c r="G30" s="3">
-        <v>383</v>
+        <v>47</v>
       </c>
       <c r="H30" s="3">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>853</v>
+        <v>578</v>
       </c>
       <c r="J30" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>10520</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -1713,34 +1719,34 @@
         <v>40</v>
       </c>
       <c r="B31" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" s="3">
-        <v>854</v>
+        <v>518</v>
       </c>
       <c r="H31" s="3">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>1630</v>
+        <v>1355</v>
       </c>
       <c r="J31" s="3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>26379</v>
+        <v>25979</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1748,34 +1754,34 @@
         <v>41</v>
       </c>
       <c r="B32" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3">
-        <v>859</v>
+        <v>523</v>
       </c>
       <c r="H32" s="3">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>1294</v>
+        <v>1019</v>
       </c>
       <c r="J32" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>18962</v>
+        <v>18562</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -1783,34 +1789,34 @@
         <v>42</v>
       </c>
       <c r="B33" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" s="3">
-        <v>3852</v>
+        <v>3516</v>
       </c>
       <c r="H33" s="3">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>7201</v>
+        <v>6926</v>
       </c>
       <c r="J33" s="3">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="K33" s="3">
-        <v>123307</v>
+        <v>122907</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -1818,34 +1824,34 @@
         <v>43</v>
       </c>
       <c r="B34" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" s="3">
-        <v>992</v>
+        <v>656</v>
       </c>
       <c r="H34" s="3">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>1694</v>
+        <v>1419</v>
       </c>
       <c r="J34" s="3">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>28412</v>
+        <v>28012</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -1853,34 +1859,34 @@
         <v>44</v>
       </c>
       <c r="B35" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" s="3">
-        <v>1399</v>
+        <v>1063</v>
       </c>
       <c r="H35" s="3">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>2459</v>
+        <v>2184</v>
       </c>
       <c r="J35" s="3">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="K35" s="3">
-        <v>42556</v>
+        <v>42156</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -1888,34 +1894,34 @@
         <v>45</v>
       </c>
       <c r="B36" s="3">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G36" s="3">
-        <v>8131</v>
+        <v>7795</v>
       </c>
       <c r="H36" s="3">
-        <v>511</v>
+        <v>31</v>
       </c>
       <c r="I36" s="3">
-        <v>15218</v>
+        <v>14943</v>
       </c>
       <c r="J36" s="3">
-        <v>375</v>
+        <v>255</v>
       </c>
       <c r="K36" s="3">
-        <v>259408</v>
+        <v>259008</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -1923,34 +1929,34 @@
         <v>46</v>
       </c>
       <c r="B37" s="3">
+        <v>108</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>74</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3">
+        <v>51</v>
+      </c>
+      <c r="G37" s="3">
+        <v>4828</v>
+      </c>
+      <c r="H37" s="3">
+        <v>215</v>
+      </c>
+      <c r="I37" s="3">
+        <v>9018</v>
+      </c>
+      <c r="J37" s="3">
         <v>107</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>73</v>
-      </c>
-      <c r="E37" s="3">
-        <v>3</v>
-      </c>
-      <c r="F37" s="3">
-        <v>50</v>
-      </c>
-      <c r="G37" s="3">
-        <v>5164</v>
-      </c>
-      <c r="H37" s="3">
-        <v>695</v>
-      </c>
-      <c r="I37" s="3">
-        <v>9293</v>
-      </c>
-      <c r="J37" s="3">
-        <v>227</v>
-      </c>
       <c r="K37" s="3">
-        <v>156211</v>
+        <v>155811</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -1958,34 +1964,34 @@
         <v>47</v>
       </c>
       <c r="B38" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" s="3">
-        <v>1710</v>
+        <v>1374</v>
       </c>
       <c r="H38" s="3">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>3226</v>
+        <v>2951</v>
       </c>
       <c r="J38" s="3">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>53808</v>
+        <v>53408</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -1993,34 +1999,34 @@
         <v>48</v>
       </c>
       <c r="B39" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="3">
-        <v>2000</v>
+        <v>1664</v>
       </c>
       <c r="H39" s="3">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>3399</v>
+        <v>3124</v>
       </c>
       <c r="J39" s="3">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="K39" s="3">
-        <v>56093</v>
+        <v>55693</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2028,34 +2034,34 @@
         <v>49</v>
       </c>
       <c r="B40" s="3">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G40" s="3">
-        <v>5569</v>
+        <v>5233</v>
       </c>
       <c r="H40" s="3">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>10023</v>
+        <v>9748</v>
       </c>
       <c r="J40" s="3">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="K40" s="3">
-        <v>171789</v>
+        <v>171389</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2063,34 +2069,34 @@
         <v>50</v>
       </c>
       <c r="B41" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>463</v>
+        <v>127</v>
       </c>
       <c r="H41" s="3">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>1081</v>
+        <v>806</v>
       </c>
       <c r="J41" s="3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>14786</v>
+        <v>14386</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2098,34 +2104,34 @@
         <v>51</v>
       </c>
       <c r="B42" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G42" s="3">
-        <v>2282</v>
+        <v>1946</v>
       </c>
       <c r="H42" s="3">
-        <v>536</v>
+        <v>56</v>
       </c>
       <c r="I42" s="3">
-        <v>4315</v>
+        <v>4040</v>
       </c>
       <c r="J42" s="3">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="K42" s="3">
-        <v>71540</v>
+        <v>71140</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -2133,34 +2139,34 @@
         <v>52</v>
       </c>
       <c r="B43" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" s="3">
-        <v>519</v>
+        <v>183</v>
       </c>
       <c r="H43" s="3">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>916</v>
+        <v>641</v>
       </c>
       <c r="J43" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>12545</v>
+        <v>12145</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2168,34 +2174,34 @@
         <v>53</v>
       </c>
       <c r="B44" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" s="3">
-        <v>3021</v>
+        <v>2685</v>
       </c>
       <c r="H44" s="3">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>5658</v>
+        <v>5383</v>
       </c>
       <c r="J44" s="3">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="K44" s="3">
-        <v>94548</v>
+        <v>94148</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2203,34 +2209,34 @@
         <v>54</v>
       </c>
       <c r="B45" s="3">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C45" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="3">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E45" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G45" s="3">
-        <v>12668</v>
+        <v>12332</v>
       </c>
       <c r="H45" s="3">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="I45" s="3">
-        <v>23484</v>
+        <v>23209</v>
       </c>
       <c r="J45" s="3">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="K45" s="3">
-        <v>404452</v>
+        <v>404052</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2238,34 +2244,34 @@
         <v>55</v>
       </c>
       <c r="B46" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" s="3">
-        <v>1507</v>
+        <v>1171</v>
       </c>
       <c r="H46" s="3">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>2741</v>
+        <v>2466</v>
       </c>
       <c r="J46" s="3">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K46" s="3">
-        <v>45498</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2273,34 +2279,34 @@
         <v>56</v>
       </c>
       <c r="B47" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47" s="3">
-        <v>3861</v>
+        <v>3525</v>
       </c>
       <c r="H47" s="3">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>6868</v>
+        <v>6593</v>
       </c>
       <c r="J47" s="3">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="K47" s="3">
-        <v>115508</v>
+        <v>115108</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2308,34 +2314,34 @@
         <v>57</v>
       </c>
       <c r="B48" s="3">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
         <v>5</v>
       </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
-        <v>4</v>
-      </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="3">
-        <v>579</v>
+        <v>243</v>
       </c>
       <c r="H48" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>513</v>
+        <v>238</v>
       </c>
       <c r="J48" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>8880</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2343,34 +2349,34 @@
         <v>58</v>
       </c>
       <c r="B49" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E49" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" s="3">
-        <v>3400</v>
+        <v>3064</v>
       </c>
       <c r="H49" s="3">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>5993</v>
+        <v>5718</v>
       </c>
       <c r="J49" s="3">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="K49" s="3">
-        <v>103610</v>
+        <v>103210</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2378,34 +2384,34 @@
         <v>59</v>
       </c>
       <c r="B50" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G50" s="3">
-        <v>2477</v>
+        <v>2141</v>
       </c>
       <c r="H50" s="3">
-        <v>589</v>
+        <v>109</v>
       </c>
       <c r="I50" s="3">
-        <v>4554</v>
+        <v>4279</v>
       </c>
       <c r="J50" s="3">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="K50" s="3">
-        <v>78374</v>
+        <v>77974</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2413,34 +2419,34 @@
         <v>60</v>
       </c>
       <c r="B51" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51" s="3">
-        <v>799</v>
+        <v>463</v>
       </c>
       <c r="H51" s="3">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3">
-        <v>1386</v>
+        <v>1111</v>
       </c>
       <c r="J51" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="K51" s="3">
-        <v>23664</v>
+        <v>23264</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2448,34 +2454,34 @@
         <v>61</v>
       </c>
       <c r="B52" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2</v>
-      </c>
       <c r="G52" s="3">
-        <v>358</v>
+        <v>22</v>
       </c>
       <c r="H52" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>630</v>
+        <v>355</v>
       </c>
       <c r="J52" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>7932</v>
+        <v>7532</v>
       </c>
     </row>
   </sheetData>

--- a/Product Data per State.xlsx
+++ b/Product Data per State.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bff73b0ba30a6b9/Dokumen/College Files/OR/OR8/OR8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{DFD41FE2-6EA3-4369-AD56-4619602AEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA420EA-7C7B-4CD3-AD36-A18B5FFAC652}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{DFD41FE2-6EA3-4369-AD56-4619602AEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42A73DC2-C223-4115-8615-9253F6F210FF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF9D25FB-F42D-42BB-A768-4008AE9B880C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FF9D25FB-F42D-42BB-A768-4008AE9B880C}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductDataperState" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>state</t>
   </si>
@@ -56,6 +57,159 @@
     <t>skiprope_pallet</t>
   </si>
   <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
     <t>blender_box</t>
   </si>
   <si>
@@ -71,164 +225,14 @@
     <t>skiprope_box</t>
   </si>
   <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>WY</t>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +251,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +271,13 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -296,17 +311,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD519F42-BEC7-432E-B37A-5C9E8D4721B9}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,9 +705,11 @@
     <col min="8" max="9" width="8.7265625" style="3"/>
     <col min="10" max="10" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,28 +728,30 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -716,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3">
-        <v>207</v>
+        <v>543</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -731,960 +778,1016 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>9365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>965</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2029</v>
+        <v>169</v>
+      </c>
+      <c r="G3" s="8">
+        <v>4381</v>
       </c>
       <c r="H3" s="3">
         <v>29</v>
       </c>
-      <c r="I3" s="3">
-        <v>3654</v>
+      <c r="I3" s="8">
+        <v>4754</v>
       </c>
       <c r="J3" s="3">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3">
-        <v>67576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="K3" s="8">
+        <v>8776</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3">
-        <v>958</v>
+        <v>102</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2638</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <v>2144</v>
+      <c r="I4" s="8">
+        <v>2694</v>
       </c>
       <c r="J4" s="3">
         <v>33</v>
       </c>
-      <c r="K4" s="3">
-        <v>40265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K4" s="8">
+        <v>5065</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>245</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6101</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6968</v>
+      </c>
+      <c r="J5" s="3">
+        <v>250</v>
+      </c>
+      <c r="K5" s="8">
+        <v>13105</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>305</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>220</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3077</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>5593</v>
-      </c>
-      <c r="J5" s="3">
-        <v>130</v>
-      </c>
-      <c r="K5" s="3">
-        <v>98305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>357</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3">
-        <v>245</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="F6" s="8">
+        <v>1284</v>
+      </c>
+      <c r="G6" s="8">
+        <v>33452</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1004</v>
+      </c>
+      <c r="I6" s="8">
+        <v>36594</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1702</v>
+      </c>
+      <c r="K6" s="8">
+        <v>68965</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
-        <v>166</v>
-      </c>
-      <c r="G6" s="3">
-        <v>15980</v>
-      </c>
-      <c r="H6" s="3">
-        <v>524</v>
-      </c>
-      <c r="I6" s="3">
-        <v>29719</v>
-      </c>
-      <c r="J6" s="3">
-        <v>622</v>
-      </c>
-      <c r="K6" s="3">
-        <v>516165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" s="3">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2360</v>
+        <v>194</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5048</v>
       </c>
       <c r="H7" s="3">
         <v>106</v>
       </c>
-      <c r="I7" s="3">
-        <v>4471</v>
+      <c r="I7" s="8">
+        <v>5296</v>
       </c>
       <c r="J7" s="3">
-        <v>53</v>
-      </c>
-      <c r="K7" s="3">
-        <v>77476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+      <c r="K7" s="8">
+        <v>10276</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1195</v>
+        <v>120</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2875</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>2688</v>
+      <c r="I8" s="8">
+        <v>3238</v>
       </c>
       <c r="J8" s="3">
         <v>60</v>
       </c>
-      <c r="K8" s="3">
-        <v>47680</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K8" s="8">
+        <v>6080</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G9" s="3">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>317</v>
+        <v>592</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>8951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>951</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3">
-        <v>240</v>
+        <v>576</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>646</v>
+        <v>921</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
-        <v>13428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K10" s="8">
+        <v>1828</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>97</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9327</v>
+        <v>745</v>
+      </c>
+      <c r="G11" s="8">
+        <v>19407</v>
       </c>
       <c r="H11" s="3">
         <v>334</v>
       </c>
-      <c r="I11" s="3">
-        <v>17292</v>
+      <c r="I11" s="8">
+        <v>21142</v>
       </c>
       <c r="J11" s="3">
-        <v>407</v>
-      </c>
-      <c r="K11" s="3">
-        <v>299251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>887</v>
+      </c>
+      <c r="K11" s="8">
+        <v>40051</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>47</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4540</v>
+        <v>364</v>
+      </c>
+      <c r="G12" s="8">
+        <v>9244</v>
       </c>
       <c r="H12" s="3">
         <v>139</v>
       </c>
-      <c r="I12" s="3">
-        <v>8233</v>
+      <c r="I12" s="8">
+        <v>10158</v>
       </c>
       <c r="J12" s="3">
-        <v>190</v>
-      </c>
-      <c r="K12" s="3">
-        <v>146097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+      <c r="K12" s="8">
+        <v>19297</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3">
-        <v>303</v>
+        <v>975</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="3">
-        <v>826</v>
+      <c r="I13" s="8">
+        <v>1101</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3">
-        <v>18657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K13" s="8">
+        <v>2257</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1108</v>
+        <v>106</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2452</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>2216</v>
+      <c r="I14" s="8">
+        <v>2766</v>
       </c>
       <c r="J14" s="3">
         <v>40</v>
       </c>
-      <c r="K14" s="3">
-        <v>42348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K14" s="8">
+        <v>5548</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3">
-        <v>806</v>
+        <v>65</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1478</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
-        <v>1321</v>
+      <c r="I15" s="8">
+        <v>1596</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
-        <v>25774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K15" s="8">
+        <v>3374</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>54</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5140</v>
+        <v>414</v>
+      </c>
+      <c r="G16" s="8">
+        <v>10516</v>
       </c>
       <c r="H16" s="3">
         <v>291</v>
       </c>
-      <c r="I16" s="3">
-        <v>9547</v>
+      <c r="I16" s="8">
+        <v>11747</v>
       </c>
       <c r="J16" s="3">
-        <v>145</v>
-      </c>
-      <c r="K16" s="3">
-        <v>166029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+      <c r="K16" s="8">
+        <v>22029</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2771</v>
+        <v>227</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5795</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4999</v>
+        <v>204</v>
+      </c>
+      <c r="I17" s="8">
+        <v>6374</v>
       </c>
       <c r="J17" s="3">
-        <v>102</v>
-      </c>
-      <c r="K17" s="3">
-        <v>90596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+      <c r="K17" s="8">
+        <v>11796</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>13</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1186</v>
+        <v>97</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2530</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3">
-        <v>2102</v>
+      <c r="I18" s="8">
+        <v>2652</v>
       </c>
       <c r="J18" s="3">
         <v>27</v>
       </c>
-      <c r="K18" s="3">
-        <v>38764</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K18" s="8">
+        <v>5164</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>20</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1678</v>
+        <v>150</v>
+      </c>
+      <c r="G19" s="8">
+        <v>3694</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="3">
-        <v>3303</v>
+      <c r="I19" s="8">
+        <v>4128</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>59670</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="K19" s="8">
+        <v>7670</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>20</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1844</v>
+        <v>151</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3860</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
-        <v>3422</v>
+      <c r="I20" s="8">
+        <v>4247</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>60382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="K20" s="8">
+        <v>7982</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>30</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2585</v>
+        <v>231</v>
+      </c>
+      <c r="G21" s="8">
+        <v>5945</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="3">
-        <v>5346</v>
+      <c r="I21" s="8">
+        <v>6446</v>
       </c>
       <c r="J21" s="3">
-        <v>109</v>
-      </c>
-      <c r="K21" s="3">
-        <v>92677</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+      <c r="K21" s="8">
+        <v>12277</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>27</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2408</v>
+        <v>204</v>
+      </c>
+      <c r="G22" s="8">
+        <v>5096</v>
       </c>
       <c r="H22" s="3">
         <v>136</v>
       </c>
-      <c r="I22" s="3">
-        <v>4675</v>
+      <c r="I22" s="8">
+        <v>5775</v>
       </c>
       <c r="J22" s="3">
-        <v>68</v>
-      </c>
-      <c r="K22" s="3">
-        <v>81600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="K22" s="8">
+        <v>10800</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>6</v>
-      </c>
-      <c r="G23" s="3">
-        <v>501</v>
+        <v>46</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1173</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3">
-        <v>1003</v>
+      <c r="I23" s="8">
+        <v>1278</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3">
-        <v>18467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K23" s="8">
+        <v>2467</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>43</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4103</v>
+        <v>331</v>
+      </c>
+      <c r="G24" s="8">
+        <v>8471</v>
       </c>
       <c r="H24" s="3">
         <v>40</v>
       </c>
-      <c r="I24" s="3">
-        <v>7411</v>
+      <c r="I24" s="8">
+        <v>9336</v>
       </c>
       <c r="J24" s="3">
-        <v>140</v>
-      </c>
-      <c r="K24" s="3">
-        <v>132866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+      <c r="K24" s="8">
+        <v>17666</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>25</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2209</v>
+        <v>189</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4897</v>
       </c>
       <c r="H25" s="3">
         <v>92</v>
       </c>
-      <c r="I25" s="3">
-        <v>4123</v>
+      <c r="I25" s="8">
+        <v>5223</v>
       </c>
       <c r="J25" s="3">
-        <v>46</v>
-      </c>
-      <c r="K25" s="3">
-        <v>75787</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+      <c r="K25" s="8">
+        <v>10187</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
         <v>35</v>
       </c>
-      <c r="B26" s="3">
-        <v>57</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>39</v>
-      </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>27</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2464</v>
+        <v>205</v>
+      </c>
+      <c r="G26" s="8">
+        <v>5152</v>
       </c>
       <c r="H26" s="3">
         <v>138</v>
       </c>
-      <c r="I26" s="3">
-        <v>4715</v>
+      <c r="I26" s="8">
+        <v>5815</v>
       </c>
       <c r="J26" s="3">
-        <v>69</v>
-      </c>
-      <c r="K26" s="3">
-        <v>81838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="K26" s="8">
+        <v>10638</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>13</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1183</v>
+        <v>97</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2527</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3">
-        <v>2100</v>
+      <c r="I27" s="8">
+        <v>2650</v>
       </c>
       <c r="J27" s="3">
         <v>27</v>
       </c>
-      <c r="K27" s="3">
-        <v>38751</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K27" s="8">
+        <v>5151</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="3">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G28" s="3">
-        <v>256</v>
+        <v>928</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>623</v>
-      </c>
-      <c r="J28" s="3">
-        <v>8392</v>
-      </c>
-      <c r="K28" s="3">
-        <v>14937</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>898</v>
+      </c>
+      <c r="J28" s="8">
+        <v>19792</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1737</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3">
-        <v>47</v>
-      </c>
-      <c r="G29" s="3">
-        <v>4200</v>
+        <v>357</v>
+      </c>
+      <c r="G29" s="8">
+        <v>9240</v>
       </c>
       <c r="H29" s="3">
         <v>120</v>
       </c>
-      <c r="I29" s="3">
-        <v>8025</v>
+      <c r="I29" s="8">
+        <v>9950</v>
       </c>
       <c r="J29" s="3">
-        <v>180</v>
-      </c>
-      <c r="K29" s="3">
-        <v>143201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+      <c r="K29" s="8">
+        <v>19201</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -1696,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="3">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G30" s="3">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -1710,366 +1813,388 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3">
-        <v>10120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K30" s="8">
+        <v>1320</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>9</v>
-      </c>
-      <c r="G31" s="3">
-        <v>518</v>
+        <v>66</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1526</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
-      <c r="I31" s="3">
-        <v>1355</v>
+      <c r="I31" s="8">
+        <v>1630</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3">
-        <v>25979</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K31" s="8">
+        <v>3179</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>6</v>
-      </c>
-      <c r="G32" s="3">
-        <v>523</v>
+        <v>47</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1195</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3">
-        <v>1019</v>
+      <c r="I32" s="8">
+        <v>1294</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3">
-        <v>18562</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K32" s="8">
+        <v>2162</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>40</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3516</v>
+        <v>307</v>
+      </c>
+      <c r="G33" s="8">
+        <v>7884</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3">
-        <v>6926</v>
+      <c r="I33" s="8">
+        <v>8576</v>
       </c>
       <c r="J33" s="3">
-        <v>103</v>
-      </c>
-      <c r="K33" s="3">
-        <v>122907</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+      <c r="K33" s="8">
+        <v>16107</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3">
-        <v>9</v>
-      </c>
-      <c r="G34" s="3">
-        <v>656</v>
+        <v>70</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1664</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
-      <c r="I34" s="3">
-        <v>1419</v>
+      <c r="I34" s="8">
+        <v>1969</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3">
-        <v>28012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K34" s="8">
+        <v>3612</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="F35" s="3">
-        <v>14</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1063</v>
+        <v>106</v>
+      </c>
+      <c r="G35" s="8">
+        <v>2743</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3">
-        <v>2184</v>
+      <c r="I35" s="8">
+        <v>3009</v>
       </c>
       <c r="J35" s="3">
         <v>39</v>
       </c>
-      <c r="K35" s="3">
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K35" s="8">
+        <v>5356</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E36" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3">
-        <v>84</v>
-      </c>
-      <c r="G36" s="3">
-        <v>7795</v>
+        <v>645</v>
+      </c>
+      <c r="G36" s="8">
+        <v>16867</v>
       </c>
       <c r="H36" s="3">
-        <v>31</v>
-      </c>
-      <c r="I36" s="3">
-        <v>14943</v>
+        <v>511</v>
+      </c>
+      <c r="I36" s="8">
+        <v>18243</v>
       </c>
       <c r="J36" s="3">
-        <v>255</v>
-      </c>
-      <c r="K36" s="3">
-        <v>259008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>855</v>
+      </c>
+      <c r="K36" s="8">
+        <v>34608</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
       <c r="D37" s="3">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E37" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
-        <v>51</v>
-      </c>
-      <c r="G37" s="3">
-        <v>4828</v>
+        <v>389</v>
+      </c>
+      <c r="G37" s="8">
+        <v>9868</v>
       </c>
       <c r="H37" s="3">
         <v>215</v>
       </c>
-      <c r="I37" s="3">
-        <v>9018</v>
+      <c r="I37" s="8">
+        <v>10943</v>
       </c>
       <c r="J37" s="3">
-        <v>107</v>
-      </c>
-      <c r="K37" s="3">
-        <v>155811</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+      <c r="K37" s="8">
+        <v>20611</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>134</v>
+      </c>
+      <c r="G38" s="8">
+        <v>3390</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>3776</v>
+      </c>
+      <c r="J38" s="3">
+        <v>82</v>
+      </c>
+      <c r="K38" s="8">
+        <v>7008</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>140</v>
+      </c>
+      <c r="G39" s="8">
+        <v>3344</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>3949</v>
+      </c>
+      <c r="J39" s="3">
+        <v>91</v>
+      </c>
+      <c r="K39" s="8">
+        <v>7293</v>
+      </c>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3">
+        <v>102</v>
+      </c>
+      <c r="C40" s="3">
         <v>2</v>
       </c>
-      <c r="F38" s="3">
-        <v>18</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1374</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>2951</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>53408</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="3">
-        <v>39</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>27</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3">
-        <v>19</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1664</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>3124</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>55693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="3">
-        <v>119</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3</v>
-      </c>
       <c r="D40" s="3">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E40" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>56</v>
-      </c>
-      <c r="G40" s="3">
-        <v>5233</v>
+        <v>427</v>
+      </c>
+      <c r="G40" s="8">
+        <v>10945</v>
       </c>
       <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>9748</v>
+        <v>332</v>
+      </c>
+      <c r="I40" s="8">
+        <v>12223</v>
       </c>
       <c r="J40" s="3">
-        <v>166</v>
-      </c>
-      <c r="K40" s="3">
-        <v>171389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+      <c r="K40" s="8">
+        <v>22989</v>
+      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -2081,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="3">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G41" s="3">
-        <v>127</v>
+        <v>799</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2095,51 +2220,55 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3">
-        <v>14386</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K41" s="8">
+        <v>1586</v>
+      </c>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>23</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1946</v>
+        <v>177</v>
+      </c>
+      <c r="G42" s="8">
+        <v>4634</v>
       </c>
       <c r="H42" s="3">
         <v>56</v>
       </c>
-      <c r="I42" s="3">
-        <v>4040</v>
+      <c r="I42" s="8">
+        <v>4865</v>
       </c>
       <c r="J42" s="3">
-        <v>28</v>
-      </c>
-      <c r="K42" s="3">
-        <v>71140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="K42" s="8">
+        <v>9540</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -2151,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G43" s="3">
-        <v>183</v>
+        <v>519</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2165,153 +2294,163 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3">
-        <v>12145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K43" s="8">
+        <v>1345</v>
+      </c>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="3">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>31</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2685</v>
+        <v>235</v>
+      </c>
+      <c r="G44" s="8">
+        <v>6045</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3">
-        <v>5383</v>
+      <c r="I44" s="8">
+        <v>6483</v>
       </c>
       <c r="J44" s="3">
-        <v>115</v>
-      </c>
-      <c r="K44" s="3">
-        <v>94148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+      <c r="K44" s="8">
+        <v>12548</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C45" s="3">
         <v>5</v>
       </c>
       <c r="D45" s="3">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E45" s="3">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>130</v>
-      </c>
-      <c r="G45" s="3">
-        <v>12332</v>
+        <v>2</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1005</v>
+      </c>
+      <c r="G45" s="8">
+        <v>26108</v>
       </c>
       <c r="H45" s="3">
         <v>640</v>
       </c>
-      <c r="I45" s="3">
-        <v>23209</v>
-      </c>
-      <c r="J45" s="3">
-        <v>560</v>
-      </c>
-      <c r="K45" s="3">
-        <v>404052</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I45" s="8">
+        <v>28709</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1280</v>
+      </c>
+      <c r="K45" s="8">
+        <v>54052</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>15</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1171</v>
+        <v>113</v>
+      </c>
+      <c r="G46" s="8">
+        <v>2851</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3">
-        <v>2466</v>
+      <c r="I46" s="8">
+        <v>3016</v>
       </c>
       <c r="J46" s="3">
         <v>50</v>
       </c>
-      <c r="K46" s="3">
-        <v>45098</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K46" s="8">
+        <v>5898</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C47" s="3">
         <v>2</v>
       </c>
       <c r="D47" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E47" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" s="3">
-        <v>38</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3525</v>
+        <v>288</v>
+      </c>
+      <c r="G47" s="8">
+        <v>7221</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3">
-        <v>6593</v>
+      <c r="I47" s="8">
+        <v>7968</v>
       </c>
       <c r="J47" s="3">
-        <v>74</v>
-      </c>
-      <c r="K47" s="3">
-        <v>115108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+      <c r="K47" s="8">
+        <v>15108</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B48" s="3">
         <v>6</v>
@@ -2320,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="D48" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G48" s="3">
         <v>243</v>
@@ -2335,126 +2474,134 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>238</v>
+        <v>513</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>8480</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>880</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
       </c>
       <c r="D49" s="3">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E49" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" s="3">
+        <v>258</v>
+      </c>
+      <c r="G49" s="8">
+        <v>6424</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <v>7368</v>
+      </c>
+      <c r="J49" s="3">
+        <v>269</v>
+      </c>
+      <c r="K49" s="8">
+        <v>13610</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
         <v>34</v>
       </c>
-      <c r="G49" s="3">
-        <v>3064</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>5718</v>
-      </c>
-      <c r="J49" s="3">
-        <v>29</v>
-      </c>
-      <c r="K49" s="3">
-        <v>103210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="3">
-        <v>55</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3">
-        <v>38</v>
-      </c>
       <c r="E50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="3">
-        <v>26</v>
-      </c>
-      <c r="G50" s="3">
-        <v>2141</v>
+        <v>195</v>
+      </c>
+      <c r="G50" s="8">
+        <v>4829</v>
       </c>
       <c r="H50" s="3">
         <v>109</v>
       </c>
-      <c r="I50" s="3">
-        <v>4279</v>
+      <c r="I50" s="8">
+        <v>5379</v>
       </c>
       <c r="J50" s="3">
+        <v>175</v>
+      </c>
+      <c r="K50" s="8">
+        <v>10374</v>
+      </c>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K50" s="3">
-        <v>77974</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="B51" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>8</v>
-      </c>
-      <c r="G51" s="3">
-        <v>463</v>
+        <v>59</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1471</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
-      <c r="I51" s="3">
-        <v>1111</v>
+      <c r="I51" s="8">
+        <v>1661</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3">
-        <v>23264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K51" s="8">
+        <v>2864</v>
+      </c>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -2466,10 +2613,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G52" s="3">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2481,7 +2628,548 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>7532</v>
+        <v>732</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B53" s="3">
+        <f>SUM(B2:B52)</f>
+        <v>2642</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" ref="C53:F53" si="0">SUM(C2:C52)</f>
+        <v>77</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>1912</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>11058</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B56" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14462E-4F1C-46AD-8C07-3E07BBF8BD0A}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="3">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3">
+        <v>543</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3">
+        <v>453</v>
+      </c>
+      <c r="I1" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5.5</v>
+      </c>
+      <c r="B2">
+        <v>5.5</v>
+      </c>
+      <c r="C2">
+        <v>5.5</v>
+      </c>
+      <c r="D2">
+        <v>5.5</v>
+      </c>
+      <c r="E2">
+        <v>5.5</v>
+      </c>
+      <c r="F2">
+        <v>0.32</v>
+      </c>
+      <c r="G2">
+        <v>0.95</v>
+      </c>
+      <c r="H2">
+        <v>0.95</v>
+      </c>
+      <c r="I2">
+        <v>0.32</v>
+      </c>
+      <c r="J2">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f>A1*A2</f>
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:J4" si="0">B1*B2</f>
+        <v>5.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>137.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>173.76</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>430.34999999999997</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>308.8</v>
+      </c>
+      <c r="K4">
+        <f>SUM(A4:J4)</f>
+        <v>1121.9099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>5.25</v>
+      </c>
+      <c r="C9">
+        <v>5.25</v>
+      </c>
+      <c r="D9">
+        <v>5.25</v>
+      </c>
+      <c r="E9">
+        <v>5.25</v>
+      </c>
+      <c r="F9">
+        <v>5.25</v>
+      </c>
+      <c r="G9">
+        <v>0.31</v>
+      </c>
+      <c r="H9">
+        <v>0.9</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <v>0.31</v>
+      </c>
+      <c r="K9">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>5.65</v>
+      </c>
+      <c r="C10">
+        <v>5.65</v>
+      </c>
+      <c r="D10">
+        <v>5.65</v>
+      </c>
+      <c r="E10">
+        <v>5.65</v>
+      </c>
+      <c r="F10">
+        <v>5.65</v>
+      </c>
+      <c r="G10">
+        <v>0.33</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.33</v>
+      </c>
+      <c r="K10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>5.25</v>
+      </c>
+      <c r="C11">
+        <v>5.25</v>
+      </c>
+      <c r="D11">
+        <v>5.25</v>
+      </c>
+      <c r="E11">
+        <v>5.25</v>
+      </c>
+      <c r="F11">
+        <v>5.25</v>
+      </c>
+      <c r="G11">
+        <v>0.31</v>
+      </c>
+      <c r="H11">
+        <v>0.9</v>
+      </c>
+      <c r="I11">
+        <v>0.9</v>
+      </c>
+      <c r="J11">
+        <v>0.31</v>
+      </c>
+      <c r="K11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>4.5</v>
+      </c>
+      <c r="C12">
+        <v>4.5</v>
+      </c>
+      <c r="D12">
+        <v>4.5</v>
+      </c>
+      <c r="E12">
+        <v>4.5</v>
+      </c>
+      <c r="F12">
+        <v>4.5</v>
+      </c>
+      <c r="G12">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>3.8</v>
+      </c>
+      <c r="C13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D13">
+        <v>4.7</v>
+      </c>
+      <c r="E13">
+        <v>4.3</v>
+      </c>
+      <c r="F13">
+        <v>4.5</v>
+      </c>
+      <c r="G13">
+        <v>0.35</v>
+      </c>
+      <c r="H13">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.4</v>
+      </c>
+      <c r="K13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>5.65</v>
+      </c>
+      <c r="C14">
+        <v>5.65</v>
+      </c>
+      <c r="D14">
+        <v>5.65</v>
+      </c>
+      <c r="E14">
+        <v>5.65</v>
+      </c>
+      <c r="F14">
+        <v>5.65</v>
+      </c>
+      <c r="G14">
+        <v>0.33</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.33</v>
+      </c>
+      <c r="K14">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>3.5</v>
+      </c>
+      <c r="C15">
+        <v>5.7</v>
+      </c>
+      <c r="D15">
+        <v>6.5</v>
+      </c>
+      <c r="E15">
+        <v>5.7</v>
+      </c>
+      <c r="F15">
+        <v>4.5</v>
+      </c>
+      <c r="G15">
+        <v>0.25</v>
+      </c>
+      <c r="H15">
+        <v>1.05</v>
+      </c>
+      <c r="I15">
+        <v>1.2</v>
+      </c>
+      <c r="J15">
+        <v>0.23</v>
+      </c>
+      <c r="K15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0.35</v>
+      </c>
+      <c r="H16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.35</v>
+      </c>
+      <c r="K16">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0.35</v>
+      </c>
+      <c r="H17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.35</v>
+      </c>
+      <c r="K17">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>5.5</v>
+      </c>
+      <c r="C18">
+        <v>5.5</v>
+      </c>
+      <c r="D18">
+        <v>5.5</v>
+      </c>
+      <c r="E18">
+        <v>5.5</v>
+      </c>
+      <c r="F18">
+        <v>5.5</v>
+      </c>
+      <c r="G18">
+        <v>0.32</v>
+      </c>
+      <c r="H18">
+        <v>0.95</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+      <c r="J18">
+        <v>0.32</v>
+      </c>
+      <c r="K18">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/Product Data per State.xlsx
+++ b/Product Data per State.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bff73b0ba30a6b9/Dokumen/College Files/OR/OR8/OR8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{DFD41FE2-6EA3-4369-AD56-4619602AEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42A73DC2-C223-4115-8615-9253F6F210FF}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{DFD41FE2-6EA3-4369-AD56-4619602AEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5552DC61-5AF1-4BB3-ACFD-D3F181C21219}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FF9D25FB-F42D-42BB-A768-4008AE9B880C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF9D25FB-F42D-42BB-A768-4008AE9B880C}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductDataperState" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>state</t>
   </si>
@@ -690,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD519F42-BEC7-432E-B37A-5C9E8D4721B9}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:K2"/>
     </sheetView>
   </sheetViews>
@@ -2665,514 +2664,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14462E-4F1C-46AD-8C07-3E07BBF8BD0A}">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="3">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3">
-        <v>543</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3">
-        <v>453</v>
-      </c>
-      <c r="I1" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>5.5</v>
-      </c>
-      <c r="B2">
-        <v>5.5</v>
-      </c>
-      <c r="C2">
-        <v>5.5</v>
-      </c>
-      <c r="D2">
-        <v>5.5</v>
-      </c>
-      <c r="E2">
-        <v>5.5</v>
-      </c>
-      <c r="F2">
-        <v>0.32</v>
-      </c>
-      <c r="G2">
-        <v>0.95</v>
-      </c>
-      <c r="H2">
-        <v>0.95</v>
-      </c>
-      <c r="I2">
-        <v>0.32</v>
-      </c>
-      <c r="J2">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <f>A1*A2</f>
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:J4" si="0">B1*B2</f>
-        <v>5.5</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>173.76</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>430.34999999999997</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>308.8</v>
-      </c>
-      <c r="K4">
-        <f>SUM(A4:J4)</f>
-        <v>1121.9099999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>5.25</v>
-      </c>
-      <c r="C9">
-        <v>5.25</v>
-      </c>
-      <c r="D9">
-        <v>5.25</v>
-      </c>
-      <c r="E9">
-        <v>5.25</v>
-      </c>
-      <c r="F9">
-        <v>5.25</v>
-      </c>
-      <c r="G9">
-        <v>0.31</v>
-      </c>
-      <c r="H9">
-        <v>0.9</v>
-      </c>
-      <c r="I9">
-        <v>0.9</v>
-      </c>
-      <c r="J9">
-        <v>0.31</v>
-      </c>
-      <c r="K9">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>5.65</v>
-      </c>
-      <c r="C10">
-        <v>5.65</v>
-      </c>
-      <c r="D10">
-        <v>5.65</v>
-      </c>
-      <c r="E10">
-        <v>5.65</v>
-      </c>
-      <c r="F10">
-        <v>5.65</v>
-      </c>
-      <c r="G10">
-        <v>0.33</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.33</v>
-      </c>
-      <c r="K10">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>5.25</v>
-      </c>
-      <c r="C11">
-        <v>5.25</v>
-      </c>
-      <c r="D11">
-        <v>5.25</v>
-      </c>
-      <c r="E11">
-        <v>5.25</v>
-      </c>
-      <c r="F11">
-        <v>5.25</v>
-      </c>
-      <c r="G11">
-        <v>0.31</v>
-      </c>
-      <c r="H11">
-        <v>0.9</v>
-      </c>
-      <c r="I11">
-        <v>0.9</v>
-      </c>
-      <c r="J11">
-        <v>0.31</v>
-      </c>
-      <c r="K11">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>4.5</v>
-      </c>
-      <c r="C12">
-        <v>4.5</v>
-      </c>
-      <c r="D12">
-        <v>4.5</v>
-      </c>
-      <c r="E12">
-        <v>4.5</v>
-      </c>
-      <c r="F12">
-        <v>4.5</v>
-      </c>
-      <c r="G12">
-        <v>0.3</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.3</v>
-      </c>
-      <c r="K12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>3.8</v>
-      </c>
-      <c r="C13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D13">
-        <v>4.7</v>
-      </c>
-      <c r="E13">
-        <v>4.3</v>
-      </c>
-      <c r="F13">
-        <v>4.5</v>
-      </c>
-      <c r="G13">
-        <v>0.35</v>
-      </c>
-      <c r="H13">
-        <v>0.9</v>
-      </c>
-      <c r="I13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J13">
-        <v>0.4</v>
-      </c>
-      <c r="K13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>5.65</v>
-      </c>
-      <c r="C14">
-        <v>5.65</v>
-      </c>
-      <c r="D14">
-        <v>5.65</v>
-      </c>
-      <c r="E14">
-        <v>5.65</v>
-      </c>
-      <c r="F14">
-        <v>5.65</v>
-      </c>
-      <c r="G14">
-        <v>0.33</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.33</v>
-      </c>
-      <c r="K14">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15">
-        <v>3.5</v>
-      </c>
-      <c r="C15">
-        <v>5.7</v>
-      </c>
-      <c r="D15">
-        <v>6.5</v>
-      </c>
-      <c r="E15">
-        <v>5.7</v>
-      </c>
-      <c r="F15">
-        <v>4.5</v>
-      </c>
-      <c r="G15">
-        <v>0.25</v>
-      </c>
-      <c r="H15">
-        <v>1.05</v>
-      </c>
-      <c r="I15">
-        <v>1.2</v>
-      </c>
-      <c r="J15">
-        <v>0.23</v>
-      </c>
-      <c r="K15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>0.35</v>
-      </c>
-      <c r="H16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J16">
-        <v>0.35</v>
-      </c>
-      <c r="K16">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>0.35</v>
-      </c>
-      <c r="H17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.35</v>
-      </c>
-      <c r="K17">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18">
-        <v>5.5</v>
-      </c>
-      <c r="C18">
-        <v>5.5</v>
-      </c>
-      <c r="D18">
-        <v>5.5</v>
-      </c>
-      <c r="E18">
-        <v>5.5</v>
-      </c>
-      <c r="F18">
-        <v>5.5</v>
-      </c>
-      <c r="G18">
-        <v>0.32</v>
-      </c>
-      <c r="H18">
-        <v>0.95</v>
-      </c>
-      <c r="I18">
-        <v>0.95</v>
-      </c>
-      <c r="J18">
-        <v>0.32</v>
-      </c>
-      <c r="K18">
-        <v>0.32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>